--- a/数据表/S-属性克制表.xlsx
+++ b/数据表/S-属性克制表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeConfig" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>属性ID</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>受击面</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defense</t>
   </si>
   <si>
     <t>string</t>
@@ -174,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +200,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -195,15 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,16 +253,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,94 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +353,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,19 +467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,145 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,22 +566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +635,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,50 +1146,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="101.25" customWidth="1"/>
     <col min="4" max="4" width="116.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1185,13 +1205,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1199,13 +1219,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1213,13 +1233,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1227,13 +1247,13 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1241,13 +1261,13 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1255,13 +1275,13 @@
         <v>10006</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1269,13 +1289,13 @@
         <v>10007</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1283,13 +1303,13 @@
         <v>10008</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1297,13 +1317,13 @@
         <v>10009</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1311,13 +1331,13 @@
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1325,13 +1345,13 @@
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1339,13 +1359,13 @@
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1353,7 +1373,7 @@
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1361,13 +1381,13 @@
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1375,13 +1395,13 @@
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1389,13 +1409,13 @@
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/S-属性克制表.xlsx
+++ b/数据表/S-属性克制表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>属性ID</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>chaos</t>
+  </si>
+  <si>
+    <t>spirit</t>
   </si>
   <si>
     <t>打击面</t>
@@ -247,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -261,8 +264,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -299,46 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,24 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,22 +395,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,11 +611,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,33 +660,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,21 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -705,6 +697,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2341,6 +2344,65 @@
       </c>
       <c r="S19" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2431,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2383,10 +2445,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2411,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2425,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2439,10 +2501,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2453,10 +2515,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2467,10 +2529,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2481,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2495,10 +2557,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2509,10 +2571,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2523,10 +2585,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2537,10 +2599,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2551,10 +2613,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2565,10 +2627,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2587,10 +2649,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2601,10 +2663,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2615,10 +2677,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/S-属性克制表.xlsx
+++ b/数据表/S-属性克制表.xlsx
@@ -80,7 +80,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
+    <t>float</t>
   </si>
   <si>
     <t>Id</t>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -264,11 +264,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,14 +316,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,9 +386,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,82 +407,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,19 +417,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,43 +501,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,115 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,17 +626,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,20 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,8 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/数据表/S-属性克制表.xlsx
+++ b/数据表/S-属性克制表.xlsx
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -265,15 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,15 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,12 +302,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -322,16 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +336,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,24 +363,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,19 +394,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,16 +611,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -660,6 +660,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -670,21 +685,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,16 +728,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,112 +749,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
